--- a/Book_Dataset-v2.xlsx
+++ b/Book_Dataset-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chric\OneDrive\Book database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.dev\book_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0211C516-E2F6-4236-85CD-8C2E2660D72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23F0BF-F01C-4B4C-8ADE-BCB23906DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{622BE830-351B-42AB-B5A8-6C6D96A90985}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="541">
   <si>
     <t>nbr de cellules vides</t>
   </si>
@@ -1694,6 +1694,15 @@
   </si>
   <si>
     <t>papier</t>
+  </si>
+  <si>
+    <t>Timothée de Fombelle</t>
+  </si>
+  <si>
+    <t>Tobie Lolness T2 - Les Yeux d’Elisha</t>
+  </si>
+  <si>
+    <t>Tobie Lolness T1 - La Vie suspendue</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1829,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1891,7 +1900,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2395,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7C5C28-8D63-4B77-8B2A-3C82F2384413}">
   <dimension ref="A1:Y266"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I174" sqref="A174:I174"/>
+    <sheetView topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18593,14 +18601,15 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="6" width="24.85546875" style="11" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="11" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
@@ -18634,69 +18643,89 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="e">
+      <c r="B3" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="E3" s="30" t="e">
+      <c r="E3" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="e">
+      <c r="B4" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="E4" s="30" t="e">
+      <c r="E4" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="e">
+      <c r="B5" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="E5" s="30" t="e">
+      <c r="E5" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="e">
-        <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="30" t="e">
-        <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="11"/>
+      <c r="A6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45488</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="e">
-        <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="E7" s="30" t="e">
-        <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="11"/>
+      <c r="A7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45464</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45473</v>
+      </c>
+      <c r="E7">
+        <v>292</v>
+      </c>
+      <c r="F7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -18707,6 +18736,9 @@
       </c>
       <c r="C8" s="11">
         <v>45447</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45463</v>
       </c>
       <c r="E8">
         <v>645</v>
@@ -22618,7 +22650,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98A7F49A-AC1F-42D7-AAB8-BADBF71BC72F}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{98A7F49A-AC1F-42D7-AAB8-BADBF71BC72F}">
           <x14:formula1>
             <xm:f>Dimension!$A:$A</xm:f>
           </x14:formula1>

--- a/Book_Dataset-v2.xlsx
+++ b/Book_Dataset-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.dev\book_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23F0BF-F01C-4B4C-8ADE-BCB23906DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A91492-33F0-43C9-8EE1-656626B683FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{622BE830-351B-42AB-B5A8-6C6D96A90985}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="543">
   <si>
     <t>nbr de cellules vides</t>
   </si>
@@ -1703,6 +1703,12 @@
   </si>
   <si>
     <t>Tobie Lolness T1 - La Vie suspendue</t>
+  </si>
+  <si>
+    <t>Ravage</t>
+  </si>
+  <si>
+    <t>Barjavel</t>
   </si>
 </sst>
 </file>
@@ -18601,7 +18607,7 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18669,17 +18675,23 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="e">
-        <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="11"/>
+      <c r="A5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45580</v>
+      </c>
       <c r="E5" t="e">
         <f>VLOOKUP(Table2[[#This Row],[Titre]],Table1[[#All],[Title]:[Nbr Pages]],9,0)</f>
         <v>#N/A</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
